--- a/data/income_statement/2digits/size/32_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/32_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>32-Other manufacturing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>32-Other manufacturing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,509 +841,574 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>7249885.56246</v>
+        <v>7084985.05042</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4401372.72823</v>
+        <v>4163093.75916</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4929535.193609999</v>
+        <v>4767760.64254</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>7776736.048490001</v>
+        <v>7477131.49405</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4615438.5883</v>
+        <v>5154983.17774</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5213149.047270001</v>
+        <v>4911269.0792</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5777562.71603</v>
+        <v>5339168.25159</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7736722.91141</v>
+        <v>7323730.45313</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8521271.21143</v>
+        <v>7755043.05028</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7409275.6061</v>
+        <v>7056347.51525</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>10074676.65638</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>9599276.055979999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>13440255.407</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3328306.48005</v>
+        <v>3238869.59791</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3622184.57397</v>
+        <v>3464608.69775</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3641534.15957</v>
+        <v>3522234.20428</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5887429.048920001</v>
+        <v>5674246.93045</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2597752.69444</v>
+        <v>3134252.5757</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2943874.01905</v>
+        <v>2746578.74569</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3348226.72799</v>
+        <v>3010187.64936</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3407099.00957</v>
+        <v>3108505.16795</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>4570159.68309</v>
+        <v>4053791.98187</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3581881.92414</v>
+        <v>3336595.381310001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4625492.14437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4344137.411239999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6082063.751</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>3907856.51982</v>
+        <v>3833772.56822</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>762319.6031099999</v>
+        <v>684832.2162</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1270607.77272</v>
+        <v>1230612.12695</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1865880.57966</v>
+        <v>1785461.35408</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1986167.06387</v>
+        <v>1991948.05486</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2240384.76866</v>
+        <v>2138788.06052</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2391607.89534</v>
+        <v>2298380.1542</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4255840.69177</v>
+        <v>4155848.44162</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>3848531.38517</v>
+        <v>3616895.68868</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3731358.07322</v>
+        <v>3632327.14269</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5318350.73867</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5127879.870770001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>7139816.43</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>13722.56259</v>
+        <v>12342.88429</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>16868.55115</v>
+        <v>13652.84521</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>17393.26132</v>
+        <v>14914.31131</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>23426.41991</v>
+        <v>17423.20952</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>31518.82999</v>
+        <v>28782.54718</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>28890.25955999999</v>
+        <v>25902.27299</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>37728.0927</v>
+        <v>30600.44803</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>73783.21006999999</v>
+        <v>59376.84356</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>102580.14317</v>
+        <v>84355.37972999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>96035.60874</v>
+        <v>87424.99125000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>130833.77334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>127258.77397</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>218375.226</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>74002.96865000001</v>
+        <v>72506.15080000002</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>62564.38043</v>
+        <v>59988.38557999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>74362.90469</v>
+        <v>72833.6627</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>98500.15674999999</v>
+        <v>87710.58276</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>82974.77168000001</v>
+        <v>71958.04671000001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>131987.49226</v>
+        <v>112957.18045</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>147594.87537</v>
+        <v>121448.95228</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>180126.08746</v>
+        <v>154341.44287</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>246877.88169</v>
+        <v>201814.28959</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>190341.60981</v>
+        <v>160120.1626</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>296590.5993599999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>265618.87969</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>366881.995</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>12799.38755</v>
+        <v>12074.00871</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>14378.43389</v>
+        <v>12712.95981</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>19971.52144</v>
+        <v>18615.66502</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>35271.07742</v>
+        <v>31346.13159</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>19368.23883</v>
+        <v>16316.79948</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>55336.15177</v>
+        <v>49515.26611</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>49122.92256</v>
+        <v>40822.17234</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>76953.52806999999</v>
+        <v>67766.57252000002</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>89489.43985</v>
+        <v>82603.02717</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>80127.28693999999</v>
+        <v>59236.35494999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>138825.73686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>132674.69259</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>216691.882</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>39475.23175</v>
+        <v>38794.23882</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>45467.00042</v>
+        <v>44912.49644</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>52715.53072</v>
+        <v>52660.11937</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>56948.12798</v>
+        <v>51143.97874</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>56376.80721</v>
+        <v>48511.59466</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>68739.94432</v>
+        <v>55649.92326</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>93140.25465999999</v>
+        <v>78232.11596</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>96702.19635</v>
+        <v>81850.42719</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>147025.53245</v>
+        <v>112191.56581</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>100566.10928</v>
+        <v>91335.14406000002</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>136590.50515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>111808.79677</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>132160.598</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>21728.34935</v>
+        <v>21637.90327</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2718.94612</v>
+        <v>2362.92933</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1675.85253</v>
+        <v>1557.87831</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>6280.951349999999</v>
+        <v>5220.472430000001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>7229.725640000001</v>
+        <v>7129.65257</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7911.39617</v>
+        <v>7791.99108</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5331.69815</v>
+        <v>2394.66398</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>6470.36304</v>
+        <v>4724.44316</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>10362.90939</v>
+        <v>7019.696609999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>9648.213589999999</v>
+        <v>9548.66359</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>21174.35735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>21135.39033</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>18029.515</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>7175882.59381</v>
+        <v>7012478.89962</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4338808.347800001</v>
+        <v>4103105.37358</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4855172.28892</v>
+        <v>4694926.97984</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>7678235.89174</v>
+        <v>7389420.91129</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4532463.81662</v>
+        <v>5083025.13103</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5081161.55501</v>
+        <v>4798311.89875</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5629967.840660001</v>
+        <v>5217719.299310001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7556596.82395</v>
+        <v>7169389.01026</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>8274393.32974</v>
+        <v>7553228.76069</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7218933.996290001</v>
+        <v>6896227.35265</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>9778086.057020001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9333657.176290002</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>13073373.412</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>6791550.87875</v>
+        <v>6668674.87892</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3928092.39397</v>
+        <v>3763149.23716</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4275312.794469999</v>
+        <v>4163400.17069</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7117113.631010001</v>
+        <v>6895247.608560001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3987042.04972</v>
+        <v>4605887.748819999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4378917.434440001</v>
+        <v>4204694.65564</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4765933.46607</v>
+        <v>4498297.78853</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6658991.083990001</v>
+        <v>6354809.20455</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7007603.69573</v>
+        <v>6467823.45185</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5964665.94847</v>
+        <v>5764771.059730001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>8101629.65937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7763586.728120001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10026647.81</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2542295.30584</v>
+        <v>2473259.65403</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>2517010.44361</v>
+        <v>2423670.10599</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3852255.440210001</v>
+        <v>3768602.03596</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4594713.70026</v>
+        <v>4435128.112900001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3306078.53008</v>
+        <v>3980223.29871</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3411847.48398</v>
+        <v>3284878.16823</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3927479.465809999</v>
+        <v>3731591.18269</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4850073.405689999</v>
+        <v>4710740.48533</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5811632.50202</v>
+        <v>5418027.52255</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4999818.20789</v>
+        <v>4852749.07041</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>7178870.729850002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6877971.73913</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>8981757.367000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>4240849.42569</v>
+        <v>4190323.488520001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1391380.31039</v>
+        <v>1324836.79238</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>402686.72172</v>
+        <v>375033.98625</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2508780.29184</v>
+        <v>2453142.01107</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>660620.67401</v>
+        <v>608428.41752</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>942616.9675</v>
+        <v>901211.93548</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>398054.07505</v>
+        <v>339611.43667</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1770890.26082</v>
+        <v>1631955.69584</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1138869.49163</v>
+        <v>1003950.10753</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>940116.1275999999</v>
+        <v>887519.4352599999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>865637.03813</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>829799.7173499999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>804761.378</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3534.09242</v>
+        <v>1147.18145</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>6965.15024</v>
+        <v>4158.34618</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>8612.373310000001</v>
+        <v>8458.59921</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2974.51049</v>
+        <v>2132.70516</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>2745.63132</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5191.42421</v>
+        <v>3430.46319</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>418262.14907</v>
+        <v>410709.91569</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>24975.8026</v>
+        <v>5600.59662</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>24410.23819</v>
+        <v>22423.68556</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>6219.647400000001</v>
@@ -1450,323 +1416,368 @@
       <c r="M17" s="48" t="n">
         <v>5769.87888</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="48" t="n">
+        <v>187379.359</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>4872.054800000001</v>
+        <v>3944.55492</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>12736.48973</v>
+        <v>10483.99261</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>11758.25923</v>
+        <v>11305.54927</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>10645.12842</v>
+        <v>4844.77943</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>17597.21431</v>
+        <v>14490.40127</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>19261.55875</v>
+        <v>15174.08874</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>22137.77614</v>
+        <v>16385.25348</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>13051.61488</v>
+        <v>6512.426759999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>32691.46389</v>
+        <v>23422.13621</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>18511.96558</v>
+        <v>18282.90666</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>51352.01251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>50045.39276</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>52749.706</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>384331.71506</v>
+        <v>343804.0207000001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>410715.9538300001</v>
+        <v>339956.13642</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>579859.49445</v>
+        <v>531526.80915</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>561122.26073</v>
+        <v>494173.30273</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>545421.7668999999</v>
+        <v>477137.38221</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>702244.1205699999</v>
+        <v>593617.2431100002</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>864034.3745899999</v>
+        <v>719421.51078</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>897605.7399599999</v>
+        <v>814579.80571</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1266789.63401</v>
+        <v>1085405.30884</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1254268.04782</v>
+        <v>1131456.29292</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1676456.39765</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1570070.44817</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3046725.602</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>213146.68081</v>
+        <v>181429.84983</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>257223.41127</v>
+        <v>199636.34633</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>331126.68475</v>
+        <v>284355.37812</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>373910.05097</v>
+        <v>308129.72669</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>403470.36446</v>
+        <v>329012.62167</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>442723.56161</v>
+        <v>370126.50313</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>524409.3851900001</v>
+        <v>407761.98678</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>596500.7738499999</v>
+        <v>531660.73443</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>777790.1462999999</v>
+        <v>657925.259</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>663721.1131900001</v>
+        <v>611702.85461</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>943401.3135999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>895408.45902</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1145831.326</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>6387.22812</v>
+        <v>4190.91416</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>6306.50578</v>
+        <v>4240.11579</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>7536.92337</v>
+        <v>5880.28609</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>35628.40189</v>
+        <v>33263.75529</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>4813.110320000001</v>
+        <v>2285.37283</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3782.6525</v>
+        <v>1164.93278</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>9846.010870000002</v>
+        <v>2371.82816</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>16769.88495</v>
+        <v>12761.99592</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>17853.05208</v>
+        <v>15473.14384</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>13310.04985</v>
+        <v>10845.27481</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>20287.83872</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16331.23475</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>29678.308</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>129616.63357</v>
+        <v>110521.19589</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>155664.93457</v>
+        <v>120313.08615</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>206147.9369</v>
+        <v>182113.5312</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>201070.60605</v>
+        <v>165189.13602</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>266711.86308</v>
+        <v>226047.8302</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>283923.93729</v>
+        <v>248392.51413</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>328261.58613</v>
+        <v>260889.25708</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>339230.29874</v>
+        <v>325662.15055</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>475278.17913</v>
+        <v>404038.13449</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>417234.96684</v>
+        <v>390000.61437</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>589483.4621400001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>563883.42775</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>708242.098</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>77142.81912</v>
+        <v>66717.73978</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>95251.97092000001</v>
+        <v>75083.14439</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>117441.82448</v>
+        <v>96361.56083</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>137211.04303</v>
+        <v>109676.83538</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>131945.39106</v>
+        <v>100679.41864</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>155016.97182</v>
+        <v>120569.05622</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>186301.78819</v>
+        <v>144500.90154</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>240500.59016</v>
+        <v>193236.58796</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>284658.91509</v>
+        <v>238413.98067</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>233176.0965</v>
+        <v>210856.96543</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>333630.01274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>315193.79652</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>407910.92</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>171185.03425</v>
+        <v>162374.17087</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>153492.54256</v>
+        <v>140319.79009</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>248732.8097</v>
+        <v>247171.43103</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>187212.20976</v>
+        <v>186043.57604</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>141951.40244</v>
+        <v>148124.76054</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>259520.55896</v>
+        <v>223490.73998</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>339624.9894</v>
+        <v>311659.524</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>301104.96611</v>
+        <v>282919.07128</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>488999.48771</v>
+        <v>427480.04984</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>590546.93463</v>
+        <v>519753.4383099999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>733055.0840499999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>674661.9891499999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1900894.276</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>152032.97646</v>
+        <v>125058.25276</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>105755.85582</v>
+        <v>85735.35418000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>173764.29759</v>
+        <v>156738.99066</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>126031.85329</v>
+        <v>111818.1628</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>168650.45863</v>
+        <v>132220.59002</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>224481.35932</v>
+        <v>183700.24698</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>508010.1139899999</v>
+        <v>419352.26605</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>406928.1055500001</v>
+        <v>304332.6307</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>519704.66702</v>
+        <v>414748.87542</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1280669.63067</v>
+        <v>827063.6499099999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>612954.91237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>497523.86608</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1189581.372</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>157.11767</v>
@@ -1775,25 +1786,25 @@
         <v>132.26098</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1323.14001</v>
+        <v>124.85896</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>357.40578</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>56.50126</v>
+        <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>5.09446</v>
+        <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>284.28202</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>3567.925</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,56 +1856,66 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>8318.320710000002</v>
+        <v>7437.627979999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6361.613490000001</v>
+        <v>5056.66631</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>8577.81301</v>
+        <v>7168.05123</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>10221.00854</v>
+        <v>9335.737590000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>8673.25165</v>
+        <v>7584.076700000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>13692.4965</v>
+        <v>12722.60889</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>17714.13558</v>
+        <v>15022.94039</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>13791.60933</v>
+        <v>13719.60106</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>21379.17058</v>
+        <v>17091.30055</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>14973.77658</v>
+        <v>13077.49167</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>20905.56536</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>17843.39958</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>72414.495</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.39683</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>393.9090400000001</v>
+        <v>124.01742</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>33.97997</v>
@@ -1918,131 +1944,151 @@
       <c r="M29" s="48" t="n">
         <v>784.9219499999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>889.42</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>14424.80076</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>418.52999</v>
+        <v>417.29209</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>527.61086</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>785.2430400000001</v>
+        <v>772.82619</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1384.23884</v>
+        <v>437.59364</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1094.88715</v>
+        <v>919.8391</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3889.01975</v>
+        <v>447.79507</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>626.5261800000001</v>
+        <v>298.55094</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2256.79078</v>
+        <v>810.6579099999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>879.7081499999999</v>
+        <v>639.7081499999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>740.31263</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>719.0069599999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2109.538</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>5.20904</v>
+        <v>0.41033</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>157.6506</v>
+        <v>5.249009999999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3.60354</v>
+        <v>3.57846</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>11.08667</v>
+        <v>2.08762</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>0.5643400000000001</v>
+        <v>127.62328</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>22.70298</v>
+        <v>16.22392</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>285.5473299999999</v>
+        <v>148.60741</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>6600.250140000001</v>
+        <v>6302.16837</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>679.83948</v>
+        <v>454.08372</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>76.70965</v>
+        <v>39.28869</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>6514.43799</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2.22167</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>7.462</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>107717.00507</v>
+        <v>83237.98585</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>65674.74103</v>
+        <v>52766.63447</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>117519.05061</v>
+        <v>106401.61559</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>83142.06476000001</v>
+        <v>73524.38113000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>123095.72645</v>
+        <v>103714.14358</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>165579.46073</v>
+        <v>138941.32288</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>422131.9431900001</v>
+        <v>364320.8352</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>298604.37</v>
+        <v>233587.52903</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>362855.2685900001</v>
+        <v>294039.97907</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1057902.51606</v>
+        <v>693962.1279000001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>431242.95482</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>403248.13172</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>912985.804</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>2598.68804</v>
+        <v>2595.60866</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>3219.66308</v>
@@ -2054,7 +2100,7 @@
         <v>1014.94482</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>1069.89177</v>
+        <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>189.56223</v>
@@ -2066,7 +2112,7 @@
         <v>257.88207</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1021.57238</v>
+        <v>351.28333</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>0</v>
@@ -2074,155 +2120,175 @@
       <c r="M33" s="48" t="n">
         <v>662.53097</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1453.707</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>4819.356650000001</v>
+        <v>4272.86062</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>7539.73834</v>
+        <v>5868.05308</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>15369.08806</v>
+        <v>13085.5426</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>6343.486440000001</v>
+        <v>5361.677900000001</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>10116.64148</v>
+        <v>9257.812400000001</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>18752.12614</v>
+        <v>18467.00514</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>23573.17206</v>
+        <v>21126.70579</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>25783.42471</v>
+        <v>18145.62672</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>60464.65918</v>
+        <v>44939.49457</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>117231.82466</v>
+        <v>91281.22863</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>44079.28948</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>32364.75785</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>110289.964</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>13992.08169</v>
+        <v>12931.44406</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>21857.74927</v>
+        <v>18145.51774</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>24258.01695</v>
+        <v>23241.75841</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>24150.95427</v>
+        <v>21443.4428</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>24227.36179</v>
+        <v>11073.05937</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>25150.12359</v>
+        <v>12443.68482</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>40111.18533</v>
+        <v>17985.3659</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>49869.52181</v>
+        <v>20626.7512</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>70217.235</v>
+        <v>56237.94524</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>88910.97586000001</v>
+        <v>27369.68516</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>107740.61715</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>41614.61336</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>85863.057</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>142450.08473</v>
+        <v>108902.377</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>84401.0977</v>
+        <v>69672.97219</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>151410.83389</v>
+        <v>138500.08212</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>93423.01279999998</v>
+        <v>84659.47343000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>144601.31301</v>
+        <v>98287.55519000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>209433.75798</v>
+        <v>172366.1978</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>454715.96832</v>
+        <v>385431.5654500001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>416484.60614</v>
+        <v>338548.77855</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>496148.68044</v>
+        <v>411369.57974</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1351659.65686</v>
+        <v>988096.4125</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>555519.86925</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>531247.02873</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1210072.311</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1004.54692</v>
+        <v>355.9348699999999</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>866.87442</v>
+        <v>528.45516</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>773.2591799999999</v>
+        <v>590.4043800000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1362.03498</v>
+        <v>1353.13291</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1065.64127</v>
+        <v>8.86181</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1908.06831</v>
+        <v>24.74368</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>5783.48353</v>
+        <v>4313.00371</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>12125.7679</v>
+        <v>10078.01056</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>580.78588</v>
+        <v>569.75172</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>72.88129000000001</v>
@@ -2230,50 +2296,60 @@
       <c r="M37" s="48" t="n">
         <v>100.0114</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>131.344</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4616.28926</v>
+        <v>4148.17862</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1469.93368</v>
+        <v>1450.02027</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>1679.15652</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>5763.655189999999</v>
+        <v>5187.140560000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4816.055230000001</v>
+        <v>3996.03634</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5914.04633</v>
+        <v>5213.26872</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>18454.17636</v>
+        <v>4509.41262</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11087.68592</v>
+        <v>5796.77611</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>7847.095369999999</v>
+        <v>5771.31926</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>5357.35106</v>
+        <v>4827.31421</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>6125.436529999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>5971.01687</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>8679.879000000001</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2285,10 +2361,10 @@
         <v>1101.22871</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>42.33266</v>
+        <v>33.10952</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>7328.17918</v>
+        <v>0</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0</v>
@@ -2297,7 +2373,7 @@
         <v>942.44723</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>608.5730600000001</v>
+        <v>608.57227</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>137.98534</v>
@@ -2308,53 +2384,63 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>115528.97092</v>
+        <v>84793.23358</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>47951.21070999999</v>
+        <v>35978.83985</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>90957.25477</v>
+        <v>79336.10665</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>52756.02459</v>
+        <v>45403.50783</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>89134.60772</v>
+        <v>68276.24078000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>166881.30314</v>
+        <v>138698.66289</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>379003.72092</v>
+        <v>339501.02574</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>339325.78104</v>
+        <v>283230.84259</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>387794.40955</v>
+        <v>333273.7393300001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1121390.829</v>
+        <v>790044.25402</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>463336.2135700001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>445231.14732</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>927801.669</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>2636.31374</v>
+        <v>2616.44043</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>3248.29001</v>
@@ -2366,7 +2452,7 @@
         <v>1043.37229</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1024.86777</v>
+        <v>189.56223</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>201.04152</v>
@@ -2378,7 +2464,7 @@
         <v>351.28333</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1050.38193</v>
+        <v>364.11787</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>298.4131</v>
@@ -2386,167 +2472,192 @@
       <c r="M41" s="48" t="n">
         <v>853.65791</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1651.922</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>14765.93563</v>
+        <v>13902.11998</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>25361.18007</v>
+        <v>24390.97457</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>49699.55552</v>
+        <v>48646.91931</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>17037.07817</v>
+        <v>16670.83762</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>18268.39975</v>
+        <v>22948.91502</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>26247.96586</v>
+        <v>25077.63953</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>28543.17744</v>
+        <v>25851.42423</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>41670.34415</v>
+        <v>33192.51872</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>84180.35312999999</v>
+        <v>62927.49544</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>198495.02372</v>
+        <v>186703.24316</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>74849.97443</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>68842.84538</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>265384.497</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3898.02826</v>
+        <v>3086.46952</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5503.59502</v>
+        <v>4076.37854</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3453.36804</v>
+        <v>3399.2554</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>15418.51492</v>
+        <v>14968.3727</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>22963.56209</v>
+        <v>2867.93901</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>8281.33282</v>
+        <v>3150.84146</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>21731.08077</v>
+        <v>10056.36985</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>11315.17074</v>
+        <v>5290.77497</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>14557.66924</v>
+        <v>8325.170779999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>26045.13274</v>
+        <v>6150.280769999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>10254.57541</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>10248.34985</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6423</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>95774.66638999998</v>
+        <v>76853.20995999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>95293.84314</v>
+        <v>78570.0702</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>178210.72977</v>
+        <v>158916.07929</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>101780.62918</v>
+        <v>78360.49741</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>106479.46421</v>
+        <v>106201.0694</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>135681.61228</v>
+        <v>119100.13687</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>205631.87891</v>
+        <v>167674.76409</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>231346.1181</v>
+        <v>171878.56041</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>339501.1353</v>
+        <v>236315.36419</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>430988.95657</v>
+        <v>337393.78288</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>454124.33076</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>373971.09035</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>658397.857</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>95571.20911</v>
+        <v>76649.75268000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>94899.79390000002</v>
+        <v>78176.02096000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>157085.95631</v>
+        <v>137791.30583</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>90075.40260000002</v>
+        <v>66807.80284</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>101227.98306</v>
+        <v>101115.8398</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>132313.09531</v>
+        <v>115731.6199</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>194837.38541</v>
+        <v>156880.85312</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>205271.75876</v>
+        <v>151896.25236</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>301764.25412</v>
+        <v>208851.7147</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>419846.0273799999</v>
+        <v>326834.68083</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>438855.0105200001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>358745.31202</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>634360.801</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>203.45728</v>
@@ -2558,139 +2669,154 @@
         <v>21124.77346</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>11705.22658</v>
+        <v>11552.69457</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5251.481150000001</v>
+        <v>5085.2296</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>3368.51697</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>10794.4935</v>
+        <v>10793.91097</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>26074.35934</v>
+        <v>19982.30805</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>37736.88118</v>
+        <v>27463.64949</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>11142.92919</v>
+        <v>10559.10205</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>15269.32024</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>15225.77833</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>24037.056</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>84993.25959</v>
+        <v>101676.83667</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>79553.45753999999</v>
+        <v>77812.10188000002</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>92875.54363</v>
+        <v>106494.26028</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>118040.42107</v>
+        <v>134841.768</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>59521.08385</v>
+        <v>75856.72597</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>138886.54802</v>
+        <v>115724.65229</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>187287.25616</v>
+        <v>177905.46051</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>60202.34742</v>
+        <v>76824.36301999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>173054.33899</v>
+        <v>194543.98133</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>88567.95187000002</v>
+        <v>21326.89283999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>336365.79641</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>266967.73615</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1222005.48</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>10571.03335</v>
+        <v>6809.67103</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>10262.9097</v>
+        <v>9539.213320000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>32010.28932</v>
+        <v>31098.01933</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>31171.90055</v>
+        <v>26794.74692</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>88330.97331</v>
+        <v>60728.58958</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>30647.29873</v>
+        <v>26865.72921</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>75050.87634</v>
+        <v>69372.00221000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>27952.14604</v>
+        <v>22373.70718</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>52541.40855000001</v>
+        <v>46253.807</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>69420.20466000002</v>
+        <v>61957.74769</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>72725.91884999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>71885.29652</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>104831.37</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>103.0636</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>46.39314999999999</v>
+        <v>46.01598</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>92.06934</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>52.67219</v>
+        <v>50.28154</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>236.95645</v>
+        <v>20.10336</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>115.58075</v>
+        <v>29.65058</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>29.17835</v>
+        <v>3.19962</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>263.35118</v>
+        <v>88.01195999999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>103.19923</v>
+        <v>25.09023</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>301.17234</v>
@@ -2698,320 +2824,363 @@
       <c r="M49" s="48" t="n">
         <v>1719.598</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1454.926</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>10467.96975</v>
+        <v>6706.60743</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>10216.51655</v>
+        <v>9493.197340000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>31918.21998</v>
+        <v>31005.94999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>31119.22836</v>
+        <v>26744.46538</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>88094.01686</v>
+        <v>60708.48622</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>30531.71798</v>
+        <v>26836.07863</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>75021.69799000002</v>
+        <v>69368.80259000001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>27688.79486</v>
+        <v>22285.69522</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>52438.20932</v>
+        <v>46228.71677000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>69119.03232000001</v>
+        <v>61656.57535</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>71006.32084999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>70165.69852000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>103376.444</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>18753.01402</v>
+        <v>16688.34436</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>5103.20504</v>
+        <v>3911.581</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>35818.44002</v>
+        <v>32883.15626</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>19586.69308</v>
+        <v>14853.31041</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>27443.14778</v>
+        <v>23205.51234</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>12776.14318</v>
+        <v>9014.01218</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>35589.22431000001</v>
+        <v>21216.83036</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>98046.29515000001</v>
+        <v>83919.54906999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>24564.40206</v>
+        <v>15013.18392</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>29263.06576</v>
+        <v>17548.58789</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>31570.89764</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>29477.08645</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>87602.128</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>562.42737</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>500.01652</v>
+        <v>199.97766</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>768.5797299999999</v>
+        <v>444.24436</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1971.01195</v>
+        <v>571.1602899999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1616.90312</v>
+        <v>576.7121999999999</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>375.5570500000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>11896.78388</v>
+        <v>11066.81447</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1999.35869</v>
+        <v>582.63953</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1668.57799</v>
+        <v>967.5291799999999</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>802.13188</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1937.00389</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>693.7608399999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1845.033</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>42.26603</v>
+        <v>24.88837</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>64.59956</v>
+        <v>63.19943</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>143.65228</v>
+        <v>107.42438</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>254.28996</v>
+        <v>223.45835</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>447.49634</v>
+        <v>310.5694099999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3008.59567</v>
+        <v>2429.99823</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>937.89878</v>
+        <v>380.87149</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5682.02019</v>
+        <v>1474.697</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1962.35192</v>
+        <v>1229.99882</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2444.7447</v>
+        <v>2320.29087</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2310.10107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2289.83435</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1866.351</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>18148.32062</v>
+        <v>16101.02862</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>4538.588959999999</v>
+        <v>3648.40391</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>34906.20800999999</v>
+        <v>32331.48752</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>17361.39117</v>
+        <v>14058.69177</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>25378.74832</v>
+        <v>22318.23073</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>9391.990460000001</v>
+        <v>6208.456899999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>22754.54165</v>
+        <v>9769.144400000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>90364.91627</v>
+        <v>81862.21253999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>20933.47215</v>
+        <v>12815.65592</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>26016.18918</v>
+        <v>14426.16514</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>27323.79268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>26493.49126000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>83890.74400000001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>76811.27892</v>
+        <v>91798.16334</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>84713.16220000001</v>
+        <v>83439.73420000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>89067.39293</v>
+        <v>104709.12335</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>129625.62854</v>
+        <v>146783.20451</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>120408.90938</v>
+        <v>113379.80321</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>156757.70357</v>
+        <v>133576.36932</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>226748.90819</v>
+        <v>226060.63236</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-9891.801689999998</v>
+        <v>15278.52113</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>201031.34548</v>
+        <v>225784.60441</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>128725.09077</v>
+        <v>65736.05264000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>377520.8176199999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>309375.94622</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1239234.722</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>22222.16267</v>
+        <v>21775.88817000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>21824.36694</v>
+        <v>19359.11466</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>30140.97631</v>
+        <v>28595.09913</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>28376.3156</v>
+        <v>26808.35015</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>22166.33438</v>
+        <v>20656.88235</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>32075.025</v>
+        <v>26689.65077</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>35945.12318</v>
+        <v>30381.71383</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>26624.58729</v>
+        <v>26048.61777</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>38829.63089</v>
+        <v>36083.74721999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>46400.76015</v>
+        <v>31480.43356</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>68241.04640000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>47219.13164</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>140946.459</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>54589.11624999999</v>
+        <v>70022.27517000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>62888.79526000001</v>
+        <v>64080.61954</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>58926.41662</v>
+        <v>76114.02421999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>101249.31294</v>
+        <v>119974.85436</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>98242.575</v>
+        <v>92722.92086</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>124682.67857</v>
+        <v>106886.71855</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>190803.78501</v>
+        <v>195678.91853</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-36516.38897999998</v>
+        <v>-10770.09664</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>162201.71459</v>
+        <v>189700.85719</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>82324.33061999999</v>
+        <v>34255.61907999997</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>309279.77122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>262156.8145800001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1098288.263</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>24</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>26</v>
+      </c>
+      <c r="E59" s="35" t="n">
         <v>37</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>45</v>
-      </c>
-      <c r="E59" s="35" t="n">
+      <c r="F59" s="35" t="n">
+        <v>41</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>28</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>32</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>33</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>41</v>
+      </c>
+      <c r="K59" s="35" t="n">
         <v>51</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>61</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>42</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>45</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>55</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>71</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>81</v>
-      </c>
       <c r="L59" s="35" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>33</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>